--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feliren\Desktop\converse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0A48E4-6B50-4C69-9BF8-4DF2EADB2FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB96038-A098-4D79-B02D-F2244A3C0B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36D2E9B4-7FBF-4686-961D-F9EA857BFD1E}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,7 +717,7 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>

--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feliren\Desktop\converse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB96038-A098-4D79-B02D-F2244A3C0B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2786E7A-EAEA-44BD-9F07-91539ADDF659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36D2E9B4-7FBF-4686-961D-F9EA857BFD1E}"/>
   </bookViews>
@@ -33,20 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -71,12 +65,6 @@
     <t>Electricity</t>
   </si>
   <si>
-    <t>Sat, 25 Apr 20 05:34:27</t>
-  </si>
-  <si>
-    <t>Snack</t>
-  </si>
-  <si>
     <t>Tissue</t>
   </si>
   <si>
@@ -86,81 +74,18 @@
     <t>Null</t>
   </si>
   <si>
-    <t>Sat, 25 Apr 20 05:34:28</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:29</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:30</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:31</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:32</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:33</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:34</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:35</t>
-  </si>
-  <si>
     <t>Item type</t>
   </si>
   <si>
     <t>Pending/Not Pending</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Protection</t>
   </si>
   <si>
     <t>Toiletries</t>
   </si>
   <si>
-    <t>Sat, 25 Apr 20 05:34:36</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:37</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:38</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:39</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:40</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:41</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:42</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:43</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:44</t>
-  </si>
-  <si>
-    <t>Sat, 25 Apr 20 05:34:45</t>
-  </si>
-  <si>
     <t>Garbage Disposal</t>
   </si>
   <si>
@@ -171,6 +96,69 @@
   </si>
   <si>
     <t>Plumbing</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Sewage</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
   </si>
 </sst>
 </file>
@@ -528,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782CB04E-71F1-4E99-A2C3-DFA378883A03}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,9 +529,8 @@
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -551,579 +538,2928 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
+      <c r="B17">
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
+      <c r="B19">
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feliren\Desktop\converse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2786E7A-EAEA-44BD-9F07-91539ADDF659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE247D-51AD-4EE2-92F0-2F1932EAAF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36D2E9B4-7FBF-4686-961D-F9EA857BFD1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -98,18 +98,6 @@
     <t>Plumbing</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>Grocery</t>
   </si>
   <si>
@@ -159,6 +147,9 @@
   </si>
   <si>
     <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -200,8 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,238 +508,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782CB04E-71F1-4E99-A2C3-DFA378883A03}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="1">
+        <v>43892</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" s="1">
+        <v>43892</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" s="1">
+        <v>43894</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="1">
+        <v>43895</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" s="1">
+        <v>43896</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" s="1">
+        <v>43898</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -756,27 +726,24 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" s="1">
+        <v>43899</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -785,27 +752,24 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" s="1">
+        <v>43900</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -814,2655 +778,2388 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" s="1">
+        <v>43901</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" s="1">
+        <v>43902</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" s="1">
+        <v>43903</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" s="1">
+        <v>43904</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" s="1">
+        <v>43905</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>2</v>
+      <c r="B16" s="1">
+        <v>43906</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>2</v>
+      <c r="B17" s="1">
+        <v>43907</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="B18" s="1">
+        <v>43908</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="B19" s="1">
+        <v>43909</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="B20" s="1">
+        <v>43910</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2</v>
+      <c r="B21" s="1">
+        <v>43911</v>
       </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="B22" s="1">
+        <v>43912</v>
       </c>
       <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>2</v>
+      <c r="B23" s="1">
+        <v>43912</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>2</v>
+      <c r="B24" s="1">
+        <v>43912</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="B25" s="1">
+        <v>43913</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>2</v>
+      <c r="B26" s="1">
+        <v>43913</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>2</v>
+      <c r="B27" s="1">
+        <v>43913</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>2</v>
+      <c r="B28" s="1">
+        <v>43913</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="B29" s="1">
+        <v>43914</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>2</v>
+      <c r="B30" s="1">
+        <v>43914</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" s="1">
+        <v>43914</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>2</v>
+      <c r="B32" s="1">
+        <v>43914</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>2</v>
+      <c r="B33" s="1">
+        <v>43915</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>2</v>
+      <c r="B34" s="1">
+        <v>43915</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>2</v>
+      <c r="B35" s="1">
+        <v>43915</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>2</v>
+      <c r="B36" s="1">
+        <v>43915</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>2</v>
+      <c r="B37" s="1">
+        <v>43916</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>2</v>
+      <c r="B38" s="1">
+        <v>43916</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>2</v>
+      <c r="B39" s="1">
+        <v>43916</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>2</v>
+      <c r="B40" s="1">
+        <v>43916</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>2</v>
+      <c r="B41" s="1">
+        <v>43917</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>3</v>
+      <c r="B42" s="1">
+        <v>43917</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>3</v>
+      <c r="B43" s="1">
+        <v>43917</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>3</v>
+      <c r="B44" s="1">
+        <v>43917</v>
       </c>
       <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
         <v>23</v>
       </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>3</v>
+      <c r="B45" s="1">
+        <v>43918</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>3</v>
+      <c r="B46" s="1">
+        <v>43918</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>3</v>
+      <c r="B47" s="1">
+        <v>43918</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>3</v>
+      <c r="B48" s="1">
+        <v>43919</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>3</v>
+      <c r="B49" s="1">
+        <v>43919</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>3</v>
+      <c r="B50" s="1">
+        <v>43919</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>3</v>
+      <c r="B51" s="1">
+        <v>43920</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>3</v>
+      <c r="B52" s="1">
+        <v>43920</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>3</v>
+      <c r="B53" s="1">
+        <v>43920</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>3</v>
+      <c r="B54" s="1">
+        <v>43921</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>3</v>
+      <c r="B55" s="1">
+        <v>43921</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>3</v>
+      <c r="B56" s="1">
+        <v>43921</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>3</v>
+      <c r="B57" s="1">
+        <v>43922</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>3</v>
+      <c r="B58" s="1">
+        <v>43922</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>3</v>
+      <c r="B59" s="1">
+        <v>43923</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>3</v>
+      <c r="B60" s="1">
+        <v>43923</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>3</v>
+      <c r="B61" s="1">
+        <v>43923</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>3</v>
+      <c r="B62" s="1">
+        <v>43924</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>3</v>
+      <c r="B63" s="1">
+        <v>43924</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>3</v>
+      <c r="B64" s="1">
+        <v>43924</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>3</v>
+      <c r="B65" s="1">
+        <v>43925</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>3</v>
+      <c r="B66" s="1">
+        <v>43925</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>3</v>
+      <c r="B67" s="1">
+        <v>43925</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>3</v>
+      <c r="B68" s="1">
+        <v>43926</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>3</v>
+      <c r="B69" s="1">
+        <v>43926</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>3</v>
+      <c r="B70" s="1">
+        <v>43927</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>3</v>
+      <c r="B71" s="1">
+        <v>43927</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>3</v>
+      <c r="B72" s="1">
+        <v>43928</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>3</v>
+      <c r="B73" s="1">
+        <v>43928</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>3</v>
+      <c r="B74" s="1">
+        <v>43929</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>3</v>
+      <c r="B75" s="1">
+        <v>43929</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>3</v>
+      <c r="B76" s="1">
+        <v>43930</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>3</v>
+      <c r="B77" s="1">
+        <v>43930</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>3</v>
+      <c r="B78" s="1">
+        <v>43931</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>3</v>
+      <c r="B79" s="1">
+        <v>43931</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>3</v>
+      <c r="B80" s="1">
+        <v>43932</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>3</v>
+      <c r="B81" s="1">
+        <v>43932</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>3</v>
+      <c r="B82" s="1">
+        <v>43933</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>3</v>
+      <c r="B83" s="1">
+        <v>43933</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>3</v>
+      <c r="B84" s="1">
+        <v>43934</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>3</v>
+      <c r="B85" s="1">
+        <v>43934</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>3</v>
+      <c r="B86" s="1">
+        <v>43935</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>3</v>
+      <c r="B87" s="1">
+        <v>43935</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>3</v>
+      <c r="B88" s="1">
+        <v>43935</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>26</v>
-      </c>
-      <c r="I88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>1</v>
+      <c r="B89" s="1">
+        <v>43935</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>1</v>
+      <c r="B90" s="1">
+        <v>43936</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>1</v>
+      <c r="B91" s="1">
+        <v>43936</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>1</v>
+      <c r="B92" s="1">
+        <v>43936</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>1</v>
+      <c r="B93" s="1">
+        <v>43936</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>1</v>
+      <c r="B94" s="1">
+        <v>43937</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
-      </c>
-      <c r="I94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>1</v>
+      <c r="B95" s="1">
+        <v>43937</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>1</v>
+      <c r="B96" s="1">
+        <v>43937</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>1</v>
+      <c r="B97" s="1">
+        <v>43937</v>
       </c>
       <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>24</v>
       </c>
-      <c r="D97" t="s">
-        <v>6</v>
-      </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
-      </c>
-      <c r="I97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>1</v>
+      <c r="B98" s="1">
+        <v>43938</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
-      </c>
-      <c r="I98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>1</v>
+      <c r="B99" s="1">
+        <v>43938</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>2</v>
+      <c r="B100" s="1">
+        <v>43939</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
-      </c>
-      <c r="I100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>2</v>
+      <c r="B101" s="1">
+        <v>43939</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" t="s">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H103">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
